--- a/fuentes/contenidos/grado08/guion03/escaleta CN_08_03_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion03/escaleta CN_08_03_CO.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="180" windowWidth="19200" windowHeight="11415"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="DATOS" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -387,9 +387,6 @@
     <t>m102AB</t>
   </si>
   <si>
-    <t>CN_08_02_CO</t>
-  </si>
-  <si>
     <t>Consolidación</t>
   </si>
   <si>
@@ -679,6 +676,9 @@
   </si>
   <si>
     <t>Recurso M2A-01</t>
+  </si>
+  <si>
+    <t>Recurso M101A-02</t>
   </si>
 </sst>
 </file>
@@ -890,16 +890,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -939,24 +957,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1265,9 +1265,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U291"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,112 +1295,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="22" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="39"/>
-      <c r="O1" s="27" t="s">
+      <c r="N1" s="45"/>
+      <c r="O1" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="Q1" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="R1" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="S1" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="T1" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="42" t="s">
+      <c r="U1" s="27" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="22" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="34"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="40"/>
       <c r="M2" s="23" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="43"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="28"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>133</v>
-      </c>
       <c r="D3" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="9"/>
       <c r="G3" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H3" s="9">
         <v>1</v>
@@ -1409,7 +1409,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>20</v>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="N3" s="8"/>
       <c r="O3" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>19</v>
@@ -1431,16 +1431,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="S3" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="T3" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="U3" s="19" t="s">
         <v>210</v>
-      </c>
-      <c r="U3" s="19" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1448,20 +1448,20 @@
         <v>17</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H4" s="9">
         <v>2</v>
@@ -1470,7 +1470,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>20</v>
@@ -1483,7 +1483,7 @@
         <v>43</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>19</v>
@@ -1492,16 +1492,16 @@
         <v>6</v>
       </c>
       <c r="R4" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="S4" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="S4" s="19" t="s">
-        <v>128</v>
-      </c>
       <c r="T4" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U4" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1509,20 +1509,20 @@
         <v>17</v>
       </c>
       <c r="B5" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>122</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>123</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H5" s="9">
         <v>3</v>
@@ -1531,7 +1531,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
@@ -1544,7 +1544,7 @@
         <v>52</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>19</v>
@@ -1553,16 +1553,16 @@
         <v>6</v>
       </c>
       <c r="R5" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="S5" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="S5" s="10" t="s">
-        <v>128</v>
-      </c>
       <c r="T5" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1570,18 +1570,18 @@
         <v>17</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="9"/>
       <c r="G6" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H6" s="9">
         <v>4</v>
@@ -1590,7 +1590,7 @@
         <v>19</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>20</v>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="N6" s="8"/>
       <c r="O6" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>19</v>
@@ -1612,16 +1612,16 @@
         <v>6</v>
       </c>
       <c r="R6" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="S6" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="S6" s="10" t="s">
-        <v>209</v>
-      </c>
       <c r="T6" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1629,20 +1629,20 @@
         <v>17</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H7" s="9">
         <v>5</v>
@@ -1651,7 +1651,7 @@
         <v>19</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>19</v>
@@ -1666,19 +1666,19 @@
         <v>19</v>
       </c>
       <c r="Q7" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="R7" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="S7" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="S7" s="10" t="s">
+      <c r="T7" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="U7" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="T7" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="U7" s="10" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1686,20 +1686,20 @@
         <v>17</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H8" s="9">
         <v>6</v>
@@ -1708,7 +1708,7 @@
         <v>19</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
@@ -1721,7 +1721,7 @@
         <v>32</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P8" s="9" t="s">
         <v>20</v>
@@ -1730,16 +1730,16 @@
         <v>6</v>
       </c>
       <c r="R8" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="S8" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="S8" s="10" t="s">
+      <c r="T8" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="T8" s="12" t="s">
+      <c r="U8" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="U8" s="10" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1747,20 +1747,20 @@
         <v>17</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H9" s="9">
         <v>7</v>
@@ -1769,7 +1769,7 @@
         <v>19</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>19</v>
@@ -1784,19 +1784,19 @@
         <v>19</v>
       </c>
       <c r="Q9" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="R9" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="S9" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="S9" s="10" t="s">
+      <c r="T9" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="U9" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="T9" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="U9" s="10" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1804,20 +1804,20 @@
         <v>17</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H10" s="9">
         <v>8</v>
@@ -1826,7 +1826,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>20</v>
@@ -1839,7 +1839,7 @@
         <v>23</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P10" s="9" t="s">
         <v>19</v>
@@ -1848,16 +1848,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="S10" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="S10" s="10" t="s">
-        <v>128</v>
-      </c>
       <c r="T10" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1865,20 +1865,20 @@
         <v>17</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H11" s="9">
         <v>9</v>
@@ -1887,7 +1887,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
@@ -1902,19 +1902,19 @@
         <v>19</v>
       </c>
       <c r="Q11" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="R11" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="R11" s="11" t="s">
+      <c r="S11" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="S11" s="10" t="s">
+      <c r="T11" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="U11" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="T11" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="U11" s="10" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1922,20 +1922,20 @@
         <v>17</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H12" s="9">
         <v>10</v>
@@ -1944,7 +1944,7 @@
         <v>19</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>20</v>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P12" s="9" t="s">
         <v>19</v>
@@ -1966,16 +1966,16 @@
         <v>6</v>
       </c>
       <c r="R12" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="S12" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="S12" s="10" t="s">
-        <v>209</v>
-      </c>
       <c r="T12" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1983,22 +1983,22 @@
         <v>17</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H13" s="9">
         <v>11</v>
@@ -2007,7 +2007,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>20</v>
@@ -2020,7 +2020,7 @@
         <v>43</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P13" s="9" t="s">
         <v>19</v>
@@ -2029,16 +2029,16 @@
         <v>6</v>
       </c>
       <c r="R13" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="S13" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="S13" s="10" t="s">
-        <v>128</v>
-      </c>
       <c r="T13" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2046,22 +2046,22 @@
         <v>17</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F14" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G14" s="16" t="s">
         <v>164</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>165</v>
       </c>
       <c r="H14" s="9">
         <v>12</v>
@@ -2070,7 +2070,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
@@ -2085,19 +2085,19 @@
         <v>20</v>
       </c>
       <c r="Q14" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="R14" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="R14" s="11" t="s">
+      <c r="S14" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="S14" s="10" t="s">
+      <c r="T14" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="U14" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="T14" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="U14" s="10" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2105,20 +2105,20 @@
         <v>17</v>
       </c>
       <c r="B15" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>122</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>123</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H15" s="9">
         <v>13</v>
@@ -2127,7 +2127,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>19</v>
@@ -2142,19 +2142,19 @@
         <v>19</v>
       </c>
       <c r="Q15" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="R15" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="S15" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="S15" s="10" t="s">
+      <c r="T15" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="U15" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="T15" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="U15" s="10" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2162,20 +2162,20 @@
         <v>17</v>
       </c>
       <c r="B16" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>122</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>123</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H16" s="9">
         <v>14</v>
@@ -2184,7 +2184,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>19</v>
@@ -2199,19 +2199,19 @@
         <v>19</v>
       </c>
       <c r="Q16" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="R16" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="S16" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="S16" s="10" t="s">
+      <c r="T16" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="U16" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="T16" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="U16" s="10" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2219,18 +2219,18 @@
         <v>17</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="9"/>
       <c r="G17" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H17" s="9">
         <v>15</v>
@@ -2239,7 +2239,7 @@
         <v>19</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="N17" s="8"/>
       <c r="O17" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P17" s="9" t="s">
         <v>19</v>
@@ -2261,16 +2261,16 @@
         <v>6</v>
       </c>
       <c r="R17" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="S17" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="S17" s="10" t="s">
-        <v>209</v>
-      </c>
       <c r="T17" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U17" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2278,16 +2278,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="13"/>
       <c r="F18" s="9"/>
       <c r="G18" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H18" s="9">
         <v>16</v>
@@ -2296,7 +2296,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>20</v>
@@ -2309,7 +2309,7 @@
         <v>120</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P18" s="9" t="s">
         <v>19</v>
@@ -2318,16 +2318,16 @@
         <v>6</v>
       </c>
       <c r="R18" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="S18" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="S18" s="10" t="s">
-        <v>128</v>
-      </c>
       <c r="T18" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2335,16 +2335,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="13"/>
       <c r="F19" s="9"/>
       <c r="G19" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H19" s="9">
         <v>17</v>
@@ -2353,7 +2353,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>20</v>
@@ -2366,7 +2366,7 @@
         <v>28</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P19" s="9" t="s">
         <v>19</v>
@@ -2375,16 +2375,16 @@
         <v>6</v>
       </c>
       <c r="R19" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="S19" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="S19" s="10" t="s">
-        <v>128</v>
-      </c>
       <c r="T19" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2392,18 +2392,18 @@
         <v>17</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H20" s="9">
         <v>18</v>
@@ -2412,7 +2412,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
@@ -2432,16 +2432,16 @@
         <v>6</v>
       </c>
       <c r="R20" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="S20" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="S20" s="10" t="s">
-        <v>128</v>
-      </c>
       <c r="T20" s="12" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2449,18 +2449,18 @@
         <v>17</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H21" s="9">
         <v>19</v>
@@ -2469,7 +2469,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>19</v>
@@ -2484,19 +2484,19 @@
         <v>19</v>
       </c>
       <c r="Q21" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="R21" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="R21" s="11" t="s">
+      <c r="S21" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="S21" s="10" t="s">
+      <c r="T21" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="U21" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="T21" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="U21" s="10" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2504,18 +2504,18 @@
         <v>17</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="9"/>
       <c r="G22" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H22" s="9">
         <v>20</v>
@@ -2524,7 +2524,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>19</v>
@@ -2539,19 +2539,19 @@
         <v>19</v>
       </c>
       <c r="Q22" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="R22" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="R22" s="11" t="s">
+      <c r="S22" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="S22" s="10" t="s">
+      <c r="T22" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="U22" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="T22" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="U22" s="10" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2559,18 +2559,18 @@
         <v>17</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="9"/>
       <c r="G23" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H23" s="9">
         <v>21</v>
@@ -2579,7 +2579,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>19</v>
@@ -2594,19 +2594,19 @@
         <v>19</v>
       </c>
       <c r="Q23" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="R23" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="R23" s="11" t="s">
+      <c r="S23" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="S23" s="10" t="s">
+      <c r="T23" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="U23" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="T23" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="U23" s="10" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2614,13 +2614,13 @@
         <v>17</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="9"/>
@@ -2634,7 +2634,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>20</v>
@@ -2659,18 +2659,18 @@
         <v>17</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="9"/>
       <c r="G25" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H25" s="9">
         <v>23</v>
@@ -2679,7 +2679,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>20</v>
@@ -2699,16 +2699,16 @@
         <v>6</v>
       </c>
       <c r="R25" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="S25" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="S25" s="10" t="s">
+      <c r="T25" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="T25" s="12" t="s">
+      <c r="U25" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="U25" s="10" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2716,18 +2716,18 @@
         <v>17</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="9"/>
       <c r="G26" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H26" s="9">
         <v>24</v>
@@ -2736,7 +2736,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
@@ -2756,16 +2756,16 @@
         <v>6</v>
       </c>
       <c r="R26" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="S26" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="S26" s="10" t="s">
-        <v>128</v>
-      </c>
       <c r="T26" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4303,16 +4303,7 @@
     <row r="290" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
     <row r="291" ht="14.45" hidden="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <autoFilter ref="A1:U2">
-    <filterColumn colId="12" showButton="0"/>
-  </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4327,6 +4318,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
